--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_10.21.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_10.21.19.xlsx
@@ -1,88 +1,123 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="18">
   <si>
-    <t>rnaDate</t>
-  </si>
-  <si>
-    <t>rnaPreparer</t>
-  </si>
-  <si>
-    <t>rnaSampleNumber</t>
-  </si>
-  <si>
-    <t>s1cDNADate</t>
-  </si>
-  <si>
-    <t>s1cDNAPreparer</t>
-  </si>
-  <si>
-    <t>s1cDNASampleNumber</t>
-  </si>
-  <si>
-    <t>polyAIsolationProtocol</t>
-  </si>
-  <si>
-    <t>s1Protocol</t>
-  </si>
-  <si>
-    <t>roboticS1Prep</t>
-  </si>
-  <si>
-    <t>s1PrimerSeq</t>
-  </si>
-  <si>
-    <t>10.11.19</t>
-  </si>
-  <si>
-    <t>A.BOODRAM</t>
-  </si>
-  <si>
-    <t>10.21.19</t>
-  </si>
-  <si>
-    <t>J.PLAGGENBERG</t>
-  </si>
-  <si>
-    <t>NEBNextPoly(A)E7490</t>
-  </si>
-  <si>
-    <t>E7760</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>random</t>
+    <t xml:space="preserve">rnaDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rnaPreparer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rnaSampleNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1cDNADate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1cDNAPreparer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1cDNASampleNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polyAIsolationProtocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1Protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roboticS1Prep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1PrimerSeq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.11.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.BOODRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.21.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J.PLAGGENBERG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBNextPoly(A)E7490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E7420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">random</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,251 +125,93 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4285F4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="EA4335"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="FBBC04"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="34A853"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="FF6D01"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="46BDC6"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="1155CC"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="1155CC"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -382,24 +259,24 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3">
-        <v>1.0</v>
+      <c r="F2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>14</v>
@@ -430,24 +307,24 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5">
-        <v>2.0</v>
+      <c r="F3" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>14</v>
@@ -462,24 +339,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5">
-        <v>3.0</v>
+      <c r="F4" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>14</v>
@@ -494,24 +371,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="5">
-        <v>4.0</v>
+      <c r="F5" s="4" t="n">
+        <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>14</v>
@@ -526,24 +403,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="5">
-        <v>5.0</v>
+      <c r="F6" s="4" t="n">
+        <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>14</v>
@@ -558,24 +435,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="5">
-        <v>6.0</v>
+      <c r="F7" s="4" t="n">
+        <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>14</v>
@@ -590,24 +467,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5">
-        <v>7.0</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="5">
-        <v>7.0</v>
+      <c r="F8" s="4" t="n">
+        <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>14</v>
@@ -622,24 +499,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="5">
-        <v>8.0</v>
+      <c r="F9" s="4" t="n">
+        <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>14</v>
@@ -654,24 +531,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="5">
-        <v>9.0</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="5">
-        <v>9.0</v>
+      <c r="F10" s="4" t="n">
+        <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>14</v>
@@ -686,24 +563,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="5">
-        <v>10.0</v>
+      <c r="F11" s="4" t="n">
+        <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>14</v>
@@ -718,24 +595,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5">
-        <v>11.0</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="5">
-        <v>11.0</v>
+      <c r="F12" s="4" t="n">
+        <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>14</v>
@@ -750,24 +627,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="5">
-        <v>12.0</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="5">
-        <v>12.0</v>
+      <c r="F13" s="4" t="n">
+        <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>14</v>
@@ -783,6 +660,12 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_10.21.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_10.21.19.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="17">
   <si>
     <t xml:space="preserve">rnaDate</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t xml:space="preserve">E7420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">random</t>
@@ -80,8 +77,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -162,7 +160,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -177,6 +175,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -203,7 +205,7 @@
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H13"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -284,11 +286,11 @@
       <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
+      <c r="I2" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -314,7 +316,7 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="5" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -323,7 +325,7 @@
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="5" t="n">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -332,11 +334,11 @@
       <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
+      <c r="I3" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -346,7 +348,7 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="5" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -355,7 +357,7 @@
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -364,11 +366,11 @@
       <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
+      <c r="I4" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -378,7 +380,7 @@
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="5" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -387,7 +389,7 @@
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="5" t="n">
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -396,11 +398,11 @@
       <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>16</v>
+      <c r="I5" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -410,7 +412,7 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="5" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -419,7 +421,7 @@
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="5" t="n">
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -428,11 +430,11 @@
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>16</v>
+      <c r="I6" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -442,7 +444,7 @@
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="5" t="n">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -451,7 +453,7 @@
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="5" t="n">
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -460,11 +462,11 @@
       <c r="H7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>16</v>
+      <c r="I7" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -474,7 +476,7 @@
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="5" t="n">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -483,7 +485,7 @@
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="5" t="n">
         <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -492,11 +494,11 @@
       <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>16</v>
+      <c r="I8" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -506,7 +508,7 @@
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="5" t="n">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -515,7 +517,7 @@
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="5" t="n">
         <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -524,11 +526,11 @@
       <c r="H9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>16</v>
+      <c r="I9" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -538,7 +540,7 @@
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="5" t="n">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -547,7 +549,7 @@
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="5" t="n">
         <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -556,11 +558,11 @@
       <c r="H10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>16</v>
+      <c r="I10" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -570,7 +572,7 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="5" t="n">
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -579,7 +581,7 @@
       <c r="E11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="5" t="n">
         <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -588,11 +590,11 @@
       <c r="H11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>16</v>
+      <c r="I11" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -602,7 +604,7 @@
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="5" t="n">
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -611,7 +613,7 @@
       <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="5" t="n">
         <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -620,11 +622,11 @@
       <c r="H12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>16</v>
+      <c r="I12" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -634,7 +636,7 @@
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="5" t="n">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -643,7 +645,7 @@
       <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="5" t="n">
         <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -652,11 +654,11 @@
       <c r="H13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>16</v>
+      <c r="I13" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_10.21.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_10.21.19.xlsx
@@ -64,7 +64,7 @@
     <t xml:space="preserve">J.PLAGGENBERG</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490</t>
+    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
   </si>
   <si>
     <t xml:space="preserve">E7420</t>
@@ -205,12 +205,14 @@
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I13"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="27.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_10.21.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_10.21.19.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">polyAIsolationProtocol</t>
   </si>
   <si>
-    <t xml:space="preserve">s1Protocol</t>
+    <t xml:space="preserve">s1cDNAProtocol</t>
   </si>
   <si>
     <t xml:space="preserve">roboticS1Prep</t>
@@ -64,10 +64,10 @@
     <t xml:space="preserve">J.PLAGGENBERG</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7490L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E7420L</t>
   </si>
   <si>
     <t xml:space="preserve">random</t>
@@ -205,7 +205,7 @@
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G13"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -288,7 +288,8 @@
       <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4" t="b">
+      <c r="I2" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -336,7 +337,8 @@
       <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="4" t="b">
+      <c r="I3" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -368,7 +370,8 @@
       <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="4" t="b">
+      <c r="I4" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -400,7 +403,8 @@
       <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="4" t="b">
+      <c r="I5" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -432,7 +436,8 @@
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="4" t="b">
+      <c r="I6" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -464,7 +469,8 @@
       <c r="H7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="4" t="b">
+      <c r="I7" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -496,7 +502,8 @@
       <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="4" t="b">
+      <c r="I8" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -528,7 +535,8 @@
       <c r="H9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="4" t="b">
+      <c r="I9" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -560,7 +568,8 @@
       <c r="H10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="4" t="b">
+      <c r="I10" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -592,7 +601,8 @@
       <c r="H11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="4" t="b">
+      <c r="I11" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -624,7 +634,8 @@
       <c r="H12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="4" t="b">
+      <c r="I12" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -656,7 +667,8 @@
       <c r="H13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="4" t="b">
+      <c r="I13" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">

--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_10.21.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_10.21.19.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/s1cDNASample/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8747B473-2E38-1F47-ADB8-0896DCD6F63C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -20,101 +33,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="17">
-  <si>
-    <t xml:space="preserve">rnaDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rnaPreparer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rnaSampleNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s1cDNADate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s1cDNAPreparer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s1cDNASampleNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">polyAIsolationProtocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s1cDNAProtocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roboticS1Prep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s1PrimerSeq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.11.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.BOODRAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.21.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J.PLAGGENBERG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E7490L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E7420L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">random</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="17">
+  <si>
+    <t>rnaDate</t>
+  </si>
+  <si>
+    <t>rnaPreparer</t>
+  </si>
+  <si>
+    <t>rnaSampleNumber</t>
+  </si>
+  <si>
+    <t>s1cDNADate</t>
+  </si>
+  <si>
+    <t>s1cDNAPreparer</t>
+  </si>
+  <si>
+    <t>s1cDNASampleNumber</t>
+  </si>
+  <si>
+    <t>polyAIsolationProtocol</t>
+  </si>
+  <si>
+    <t>s1cDNAProtocol</t>
+  </si>
+  <si>
+    <t>roboticS1Prep</t>
+  </si>
+  <si>
+    <t>s1PrimerSeq</t>
+  </si>
+  <si>
+    <t>10.11.19</t>
+  </si>
+  <si>
+    <t>A.BOODRAM</t>
+  </si>
+  <si>
+    <t>10.21.19</t>
+  </si>
+  <si>
+    <t>J.PLAGGENBERG</t>
+  </si>
+  <si>
+    <t>E7490L</t>
+  </si>
+  <si>
+    <t>E7420L</t>
+  </si>
+  <si>
+    <t>random</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -127,7 +121,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -135,87 +129,345 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Z13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="27.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="14.43"/>
+    <col min="1" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" customWidth="1"/>
+    <col min="8" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -263,15 +515,15 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>1</v>
+    <row r="2" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -279,8 +531,8 @@
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="n">
-        <v>1</v>
+      <c r="F2" s="4">
+        <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>14</v>
@@ -288,39 +540,23 @@
       <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I2" s="3" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="n">
-        <v>2</v>
+      <c r="C3" s="4">
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -328,8 +564,8 @@
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="n">
-        <v>2</v>
+      <c r="F3" s="4">
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>14</v>
@@ -337,23 +573,23 @@
       <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I3" s="3" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="n">
-        <v>3</v>
+      <c r="C4" s="4">
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -361,8 +597,8 @@
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5" t="n">
-        <v>3</v>
+      <c r="F4" s="4">
+        <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>14</v>
@@ -370,23 +606,23 @@
       <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I4" s="3" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="n">
-        <v>4</v>
+      <c r="C5" s="4">
+        <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -394,8 +630,8 @@
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="5" t="n">
-        <v>4</v>
+      <c r="F5" s="4">
+        <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>14</v>
@@ -403,23 +639,23 @@
       <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I5" s="3" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="n">
-        <v>5</v>
+      <c r="C6" s="4">
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -427,8 +663,8 @@
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="5" t="n">
-        <v>5</v>
+      <c r="F6" s="4">
+        <v>6</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>14</v>
@@ -436,23 +672,23 @@
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I6" s="3" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5" t="n">
-        <v>6</v>
+      <c r="C7" s="4">
+        <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -460,8 +696,8 @@
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="5" t="n">
-        <v>6</v>
+      <c r="F7" s="4">
+        <v>7</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>14</v>
@@ -469,23 +705,23 @@
       <c r="H7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I7" s="3" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5" t="n">
-        <v>7</v>
+      <c r="C8" s="4">
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -493,8 +729,8 @@
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="5" t="n">
-        <v>7</v>
+      <c r="F8" s="4">
+        <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>14</v>
@@ -502,23 +738,23 @@
       <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I8" s="3" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5" t="n">
-        <v>8</v>
+      <c r="C9" s="4">
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -526,8 +762,8 @@
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="5" t="n">
-        <v>8</v>
+      <c r="F9" s="4">
+        <v>9</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>14</v>
@@ -535,23 +771,23 @@
       <c r="H9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I9" s="3" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="5" t="n">
-        <v>9</v>
+      <c r="C10" s="4">
+        <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -559,8 +795,8 @@
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="5" t="n">
-        <v>9</v>
+      <c r="F10" s="4">
+        <v>10</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>14</v>
@@ -568,23 +804,23 @@
       <c r="H10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I10" s="3" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5" t="n">
-        <v>10</v>
+      <c r="C11" s="4">
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -592,8 +828,8 @@
       <c r="E11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="5" t="n">
-        <v>10</v>
+      <c r="F11" s="4">
+        <v>11</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>14</v>
@@ -601,87 +837,16 @@
       <c r="H11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="I11" s="3" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>